--- a/07-design-dynamic/Micro-TCG-Ian-Schreiber.xlsx
+++ b/07-design-dynamic/Micro-TCG-Ian-Schreiber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\gamedev-5780\04-design-dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5781\07-design-dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D03800-E3CA-4309-9C1F-782FEE07A7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B122621D-BA46-4CB3-BD79-43BDF1E55E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="318" windowWidth="19170" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="4455" windowWidth="15600" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules of Play" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -644,49 +646,49 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
   </sheetData>
@@ -698,20 +700,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.578125" customWidth="1"/>
-    <col min="6" max="6" width="16.83984375" customWidth="1"/>
-    <col min="7" max="11" width="9.15625" style="2"/>
-    <col min="12" max="12" width="9.15625" style="3"/>
-    <col min="13" max="13" width="9.15625" style="2"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="9.109375" style="3"/>
+    <col min="13" max="13" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -786,7 +788,7 @@
         <v>-0.60000000000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -826,7 +828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -866,7 +868,7 @@
         <v>-0.59999999999999964</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -906,42 +908,42 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -960,16 +962,16 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.578125" customWidth="1"/>
-    <col min="6" max="6" width="16.83984375" customWidth="1"/>
-    <col min="7" max="11" width="9.15625" style="2"/>
-    <col min="12" max="12" width="9.15625" style="3"/>
-    <col min="13" max="13" width="9.15625" style="2"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="9.109375" style="3"/>
+    <col min="13" max="13" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1250,47 +1252,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1309,17 +1311,17 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.578125" customWidth="1"/>
-    <col min="6" max="6" width="13.578125" customWidth="1"/>
-    <col min="7" max="7" width="16.83984375" customWidth="1"/>
-    <col min="8" max="12" width="9.15625" style="2"/>
-    <col min="13" max="13" width="9.15625" style="3"/>
-    <col min="14" max="14" width="9.15625" style="2"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="12" width="9.109375" style="2"/>
+    <col min="13" max="13" width="9.109375" style="3"/>
+    <col min="14" max="14" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1650,42 +1652,42 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1704,17 +1706,17 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.578125" customWidth="1"/>
-    <col min="6" max="6" width="13.578125" customWidth="1"/>
-    <col min="7" max="7" width="16.83984375" customWidth="1"/>
-    <col min="8" max="12" width="9.15625" style="2"/>
-    <col min="13" max="13" width="9.15625" style="3"/>
-    <col min="14" max="14" width="9.15625" style="4"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="12" width="9.109375" style="2"/>
+    <col min="13" max="13" width="9.109375" style="3"/>
+    <col min="14" max="14" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2299,17 +2301,17 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.578125" customWidth="1"/>
-    <col min="6" max="6" width="13.578125" customWidth="1"/>
-    <col min="7" max="7" width="16.83984375" customWidth="1"/>
-    <col min="8" max="12" width="9.15625" style="2"/>
-    <col min="13" max="13" width="9.15625" style="3"/>
-    <col min="14" max="14" width="9.15625" style="4"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="12" width="9.109375" style="2"/>
+    <col min="13" max="13" width="9.109375" style="3"/>
+    <col min="14" max="14" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2737,7 +2739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2783,7 +2785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2875,7 +2877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -3096,7 +3098,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -3139,22 +3141,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
